--- a/nmadb/480611.xlsx
+++ b/nmadb/480611.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7155"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -103,20 +103,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="49">
   <si>
     <t>Treatments</t>
   </si>
   <si>
-    <t>SE</t>
-  </si>
-  <si>
     <t>Harmful</t>
   </si>
   <si>
-    <t>MD</t>
-  </si>
-  <si>
     <t>CIL</t>
   </si>
   <si>
@@ -130,9 +124,6 @@
   </si>
   <si>
     <t>t2</t>
-  </si>
-  <si>
-    <t>Study ID</t>
   </si>
   <si>
     <t>2 DMARDs</t>
@@ -261,12 +252,24 @@
   <si>
     <t xml:space="preserve">id (ref number) </t>
   </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>effect=MD</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,7 +472,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -531,106 +534,107 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="99">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -647,7 +651,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -721,7 +725,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -756,7 +759,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -932,15 +934,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" style="11" customWidth="1"/>
@@ -956,42 +958,42 @@
     <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1">
       <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>5</v>
-      </c>
       <c r="I1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="L1" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="24">
         <v>2005</v>
       </c>
@@ -1002,10 +1004,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F2" s="12">
         <v>-0.15</v>
@@ -1027,15 +1029,18 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="B3" s="11">
         <v>3</v>
       </c>
+      <c r="C3" s="24">
+        <v>1</v>
+      </c>
       <c r="D3" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" s="12">
         <v>-0.63</v>
@@ -1057,18 +1062,21 @@
         <v>1</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="B4" s="11">
         <v>3</v>
       </c>
+      <c r="C4" s="24">
+        <v>1</v>
+      </c>
       <c r="D4" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F4" s="12">
         <v>-0.6</v>
@@ -1089,10 +1097,10 @@
         <v>2</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="24">
         <v>1999</v>
       </c>
@@ -1103,10 +1111,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F5" s="12">
         <v>-0.12</v>
@@ -1128,10 +1136,10 @@
         <v>3</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="24">
         <v>2003</v>
       </c>
@@ -1142,10 +1150,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F6" s="12">
         <v>-0.71</v>
@@ -1167,10 +1175,10 @@
         <v>4</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="24">
         <v>2005</v>
       </c>
@@ -1181,10 +1189,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F7" s="12">
         <v>-0.82</v>
@@ -1205,18 +1213,21 @@
         <v>5</v>
       </c>
       <c r="O7" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="B8" s="11">
         <v>19</v>
       </c>
+      <c r="C8" s="24">
+        <v>4</v>
+      </c>
       <c r="D8" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F8" s="12">
         <v>-0.12</v>
@@ -1236,10 +1247,10 @@
         <v>6</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="24">
         <v>1989</v>
       </c>
@@ -1250,10 +1261,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F9" s="12">
         <v>-0.16</v>
@@ -1275,10 +1286,10 @@
         <v>7</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="24">
         <v>2008</v>
       </c>
@@ -1289,10 +1300,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F10" s="12">
         <v>-0.28999999999999998</v>
@@ -1309,15 +1320,18 @@
       </c>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="B11" s="11">
         <v>28</v>
       </c>
+      <c r="C11" s="24">
+        <v>6</v>
+      </c>
       <c r="D11" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F11" s="12">
         <v>-0.32</v>
@@ -1333,15 +1347,18 @@
         <v>0.18622448979591838</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="B12" s="11">
         <v>28</v>
       </c>
+      <c r="C12" s="24">
+        <v>6</v>
+      </c>
       <c r="D12" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F12" s="12">
         <v>-0.62</v>
@@ -1357,7 +1374,7 @@
         <v>0.18622448979591838</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="24">
         <v>1999</v>
       </c>
@@ -1368,10 +1385,10 @@
         <v>7</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F13" s="12">
         <v>-0.18</v>
@@ -1388,17 +1405,19 @@
       </c>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="25"/>
       <c r="B14" s="14">
         <v>29</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="25">
+        <v>7</v>
+      </c>
       <c r="D14" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F14" s="18">
         <v>-0.22</v>
@@ -1414,7 +1433,7 @@
         <v>0.22704081632653061</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="25">
         <v>2004</v>
       </c>
@@ -1425,10 +1444,10 @@
         <v>8</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F15" s="18">
         <v>-0.56000000000000005</v>
@@ -1445,7 +1464,7 @@
       </c>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="3" customFormat="1">
       <c r="A16" s="25">
         <v>1999</v>
       </c>
@@ -1456,10 +1475,10 @@
         <v>9</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F16" s="18">
         <v>-0.46</v>
@@ -1480,7 +1499,7 @@
       <c r="O16"/>
       <c r="P16"/>
     </row>
-    <row r="17" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="14.25" customHeight="1">
       <c r="A17" s="25">
         <v>1997</v>
       </c>
@@ -1491,10 +1510,10 @@
         <v>10</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F17" s="18">
         <v>-0.25</v>
@@ -1515,7 +1534,7 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="3" customFormat="1">
       <c r="A18" s="25">
         <v>2004</v>
       </c>
@@ -1526,10 +1545,10 @@
         <v>11</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F18" s="18">
         <v>0.13</v>
@@ -1550,7 +1569,7 @@
       <c r="O18"/>
       <c r="P18"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="25">
         <v>2005</v>
       </c>
@@ -1561,10 +1580,10 @@
         <v>12</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F19" s="12">
         <v>-0.51</v>
@@ -1585,7 +1604,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="25">
         <v>1999</v>
       </c>
@@ -1596,10 +1615,10 @@
         <v>13</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F20" s="12">
         <v>-0.25</v>
@@ -1615,7 +1634,7 @@
         <v>0.22193877551020405</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="25">
         <v>1995</v>
       </c>
@@ -1626,10 +1645,10 @@
         <v>14</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F21" s="12">
         <v>-0.31</v>
@@ -1645,7 +1664,7 @@
         <v>0.19642857142857142</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="25">
         <v>2005</v>
       </c>
@@ -1656,10 +1675,10 @@
         <v>15</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F22" s="12">
         <v>-0.51</v>
@@ -1674,8 +1693,11 @@
         <f t="shared" si="0"/>
         <v>0.13775510204081634</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K22" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="25">
         <v>1995</v>
       </c>
@@ -1686,10 +1708,10 @@
         <v>16</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F23" s="12">
         <v>-0.25</v>
@@ -1705,7 +1727,7 @@
         <v>0.31632653061224492</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="25">
         <v>2005</v>
       </c>
@@ -1716,10 +1738,10 @@
         <v>17</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F24" s="12">
         <v>-3.71</v>
@@ -1735,7 +1757,7 @@
         <v>0.27806122448979587</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="3" customFormat="1">
       <c r="A25" s="25">
         <v>2004</v>
       </c>
@@ -1746,10 +1768,10 @@
         <v>18</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F25" s="12">
         <v>-0.34</v>
@@ -1770,7 +1792,7 @@
       <c r="O25"/>
       <c r="P25"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" s="25">
         <v>2008</v>
       </c>
@@ -1781,10 +1803,10 @@
         <v>19</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F26" s="12">
         <v>-0.38</v>
@@ -1805,7 +1827,7 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="3" customFormat="1">
       <c r="A27" s="25">
         <v>2000</v>
       </c>
@@ -1816,10 +1838,10 @@
         <v>20</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F27" s="12">
         <v>-0.65</v>
@@ -1840,7 +1862,7 @@
       <c r="O27"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" s="25">
         <v>2004</v>
       </c>
@@ -1851,10 +1873,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F28" s="12">
         <v>-0.43</v>
@@ -1875,7 +1897,7 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="3" customFormat="1">
       <c r="A29" s="25">
         <v>2006</v>
       </c>
@@ -1886,10 +1908,10 @@
         <v>22</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F29" s="12">
         <v>-0.23</v>
@@ -1910,7 +1932,7 @@
       <c r="O29"/>
       <c r="P29"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="25">
         <v>2004</v>
       </c>
@@ -1921,10 +1943,10 @@
         <v>23</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F30" s="12">
         <v>-0.44</v>
@@ -1945,7 +1967,7 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
     </row>
-    <row r="31" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="3" customFormat="1">
       <c r="A31" s="25">
         <v>2008</v>
       </c>
@@ -1956,10 +1978,10 @@
         <v>24</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F31" s="12">
         <v>-0.31</v>
@@ -1980,7 +2002,7 @@
       <c r="O31"/>
       <c r="P31"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" s="25">
         <v>2009</v>
       </c>
@@ -1991,10 +2013,10 @@
         <v>25</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F32" s="12">
         <v>-0.28000000000000003</v>
@@ -2015,7 +2037,7 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
     </row>
-    <row r="33" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="3" customFormat="1">
       <c r="A33" s="25">
         <v>2006</v>
       </c>
@@ -2026,10 +2048,10 @@
         <v>26</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F33" s="12">
         <v>-0.19</v>
@@ -2050,7 +2072,7 @@
       <c r="O33"/>
       <c r="P33"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" s="25">
         <v>2009</v>
       </c>
@@ -2061,10 +2083,10 @@
         <v>27</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F34" s="12">
         <v>-0.2</v>
@@ -2085,7 +2107,7 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
     </row>
-    <row r="35" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" s="6" customFormat="1">
       <c r="A35" s="26">
         <v>2009</v>
       </c>
@@ -2096,10 +2118,10 @@
         <v>28</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F35" s="13">
         <v>-0.24</v>
@@ -2120,7 +2142,7 @@
       <c r="O35"/>
       <c r="P35"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" s="25">
         <v>2005</v>
       </c>
@@ -2131,10 +2153,10 @@
         <v>29</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F36" s="12">
         <v>-0.63</v>
@@ -2155,7 +2177,7 @@
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" s="25">
         <v>2011</v>
       </c>
@@ -2166,10 +2188,10 @@
         <v>30</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F37" s="12">
         <v>-0.32</v>
@@ -2185,7 +2207,7 @@
         <v>9.438775510204081E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" s="25">
         <v>2011</v>
       </c>
@@ -2196,10 +2218,10 @@
         <v>31</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F38" s="12">
         <v>-0.04</v>
@@ -2216,15 +2238,18 @@
       </c>
       <c r="J38" s="12"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="B39" s="11">
         <v>46</v>
       </c>
+      <c r="C39" s="24">
+        <v>31</v>
+      </c>
       <c r="D39" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F39" s="12">
         <v>-0.13</v>
@@ -2240,7 +2265,7 @@
         <v>0.11224489795918366</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="24">
         <v>2011</v>
       </c>
@@ -2251,10 +2276,10 @@
         <v>32</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F40" s="12">
         <v>-0.34</v>
@@ -2270,7 +2295,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" s="24">
         <v>2012</v>
       </c>
@@ -2281,10 +2306,10 @@
         <v>33</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F41" s="12">
         <v>-0.52</v>
@@ -2300,7 +2325,7 @@
         <v>0.13775510204081634</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" s="3" customFormat="1">
       <c r="A42" s="24">
         <v>2012</v>
       </c>
@@ -2311,10 +2336,10 @@
         <v>34</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F42" s="12">
         <v>-0.39</v>
@@ -2335,7 +2360,7 @@
       <c r="O42"/>
       <c r="P42"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" s="24">
         <v>2012</v>
       </c>
@@ -2346,10 +2371,10 @@
         <v>35</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F43" s="12">
         <v>-0.42</v>
@@ -2370,7 +2395,7 @@
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" s="24">
         <v>2012</v>
       </c>
@@ -2381,10 +2406,10 @@
         <v>36</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F44" s="12">
         <v>-0.27</v>
@@ -2400,7 +2425,7 @@
         <v>8.4183673469387751E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" s="24">
         <v>2012</v>
       </c>
@@ -2411,10 +2436,10 @@
         <v>37</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F45" s="12">
         <v>-0.33</v>
@@ -2430,7 +2455,7 @@
         <v>0.10204081632653061</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" s="24">
         <v>2013</v>
       </c>
@@ -2441,10 +2466,10 @@
         <v>38</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F46" s="12">
         <v>-0.21</v>
@@ -2460,52 +2485,52 @@
         <v>6.1224489795918373E-2</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2">
       <c r="B85" s="14"/>
     </row>
   </sheetData>
@@ -2521,12 +2546,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2538,12 +2563,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
